--- a/Hospital Records/ignore/geocoded_test.xlsx
+++ b/Hospital Records/ignore/geocoded_test.xlsx
@@ -1534,8 +1534,16 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Port Talbot</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>SA12 7PH</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr">
         <is>
           <t>SA12 7BX</t>
@@ -1801,11 +1809,15 @@
       </c>
       <c r="DY3" t="inlineStr"/>
       <c r="DZ3" t="inlineStr"/>
-      <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr"/>
+      <c r="EA3" t="n">
+        <v>51.601185</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>-3.828328</v>
+      </c>
       <c r="EC3" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>postcode</t>
         </is>
       </c>
     </row>
